--- a/Analytics_Attachment.xlsx
+++ b/Analytics_Attachment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Desktop\NBA Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\workspace\EclipseWorkspace\NBAHackathonQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12288" windowHeight="7728" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="7152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Division_Info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="47">
   <si>
     <t>Team_Name</t>
   </si>
@@ -161,40 +161,7 @@
     <t>Date Eliminated</t>
   </si>
   <si>
-    <t>3/6/2017</t>
-  </si>
-  <si>
-    <t>4/5/2017</t>
-  </si>
-  <si>
-    <t>3/31/2017</t>
-  </si>
-  <si>
-    <t>4/8/2017</t>
-  </si>
-  <si>
-    <t>3/16/2017</t>
-  </si>
-  <si>
-    <t>4/10/2017</t>
-  </si>
-  <si>
-    <t>4/1/2017</t>
-  </si>
-  <si>
-    <t>4/2/2017</t>
-  </si>
-  <si>
-    <t>3/28/2017</t>
-  </si>
-  <si>
-    <t>3/27/2017</t>
-  </si>
-  <si>
-    <t>3/26/2017</t>
-  </si>
-  <si>
-    <t>3/19/2017</t>
+    <t>10/25/2016</t>
   </si>
 </sst>
 </file>
@@ -901,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -25523,8 +25490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25546,7 +25513,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -25554,7 +25521,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -25570,7 +25537,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -25578,7 +25545,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -25586,7 +25553,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -25594,7 +25561,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -25602,7 +25569,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -25610,7 +25577,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -25626,7 +25593,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -25634,7 +25601,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -25642,7 +25609,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -25650,7 +25617,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -25658,7 +25625,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -25666,7 +25633,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -25674,7 +25641,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -25682,7 +25649,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -25690,7 +25657,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -25698,7 +25665,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -25706,7 +25673,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -25714,7 +25681,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -25722,7 +25689,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -25730,7 +25697,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -25738,7 +25705,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -25746,7 +25713,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -25754,7 +25721,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -25762,7 +25729,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -25770,7 +25737,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -25778,7 +25745,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
